--- a/biology/Botanique/Circaea/Circaea.xlsx
+++ b/biology/Botanique/Circaea/Circaea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Circaea est un genre  de plantes de fleurs appartenant à la famille Onagraceae, contenant 7 à 10 espèces.
 Ce sont des plantes qui se développent dans les régions tempérées de l'hémisphère nord. Deux espèces sont silvestres (Circaea lutetiana) et  (Circaea alpine).
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Par rapport aux caractéristiques de la famille, ce genre n'a que deux sépales et deux pétales au lieu de quatre. Le fruit est couvert de piquants qui sont utilisés pour la dissémination par les animaux.
 </t>
@@ -543,11 +557,13 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été décrit par Tourn. Ex L. Et publié en Species Plantarum 1: 8–9. 1753[1]. L'espèce type est: Circaea lutetiana L.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été décrit par Tourn. Ex L. Et publié en Species Plantarum 1: 8–9. 1753. L'espèce type est: Circaea lutetiana L.
 Etymologie
-Circaea: Nom générique nommé en honneur de Circé, dans la mythologie grecque déesse et hechicera qu'a habité dans l'île de Eea[2].
+Circaea: Nom générique nommé en honneur de Circé, dans la mythologie grecque déesse et hechicera qu'a habité dans l'île de Eea.
 </t>
         </is>
       </c>
@@ -576,7 +592,9 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Circaea Alpine
 Circaea Alpine subsp. Alpine
